--- a/Excel-XLSX/UN-BSN.xlsx
+++ b/Excel-XLSX/UN-BSN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="694">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Yh82HT</t>
+    <t>OoD15h</t>
   </si>
   <si>
     <t>1993</t>
@@ -2001,9 +2001,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>426</t>
-  </si>
-  <si>
     <t>363</t>
   </si>
   <si>
@@ -2016,21 +2013,24 @@
     <t>367</t>
   </si>
   <si>
+    <t>94796</t>
+  </si>
+  <si>
     <t>368</t>
   </si>
   <si>
     <t>369</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
     <t>370</t>
   </si>
   <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
     <t>372</t>
   </si>
   <si>
@@ -2055,6 +2055,12 @@
     <t>379</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
     <t>380</t>
   </si>
   <si>
@@ -2080,9 +2086,6 @@
   </si>
   <si>
     <t>388</t>
-  </si>
-  <si>
-    <t>490</t>
   </si>
   <si>
     <t>389</t>
@@ -27144,10 +27147,10 @@
         <v>28</v>
       </c>
       <c r="N363" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O363" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P363" s="2" t="s">
         <v>29</v>
@@ -27162,7 +27165,7 @@
         <v>29</v>
       </c>
       <c r="T363" s="2" t="s">
-        <v>661</v>
+        <v>335</v>
       </c>
       <c r="U363" s="1" t="s">
         <v>31</v>
@@ -27182,7 +27185,7 @@
         <v>22</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>660</v>
@@ -27230,7 +27233,7 @@
         <v>29</v>
       </c>
       <c r="T364" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="U364" s="1" t="s">
         <v>31</v>
@@ -27250,7 +27253,7 @@
         <v>22</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>660</v>
@@ -27283,7 +27286,7 @@
         <v>29</v>
       </c>
       <c r="O365" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="P365" s="2" t="s">
         <v>29</v>
@@ -27298,7 +27301,7 @@
         <v>29</v>
       </c>
       <c r="T365" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U365" s="1" t="s">
         <v>31</v>
@@ -27366,7 +27369,7 @@
         <v>29</v>
       </c>
       <c r="T366" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="U366" s="1" t="s">
         <v>31</v>
@@ -27386,7 +27389,7 @@
         <v>22</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>660</v>
@@ -27434,7 +27437,7 @@
         <v>29</v>
       </c>
       <c r="T367" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="U367" s="1" t="s">
         <v>31</v>
@@ -27454,7 +27457,7 @@
         <v>22</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>660</v>
@@ -27493,7 +27496,7 @@
         <v>29</v>
       </c>
       <c r="Q368" s="2" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="R368" s="2" t="s">
         <v>29</v>
@@ -27528,16 +27531,16 @@
         <v>660</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="J369" s="2" t="s">
         <v>25</v>
@@ -27555,7 +27558,7 @@
         <v>29</v>
       </c>
       <c r="O369" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="P369" s="2" t="s">
         <v>29</v>
@@ -27570,7 +27573,7 @@
         <v>29</v>
       </c>
       <c r="T369" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="U369" s="1" t="s">
         <v>31</v>
@@ -27596,16 +27599,16 @@
         <v>660</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>669</v>
+        <v>551</v>
       </c>
       <c r="J370" s="2" t="s">
         <v>25</v>
@@ -27658,22 +27661,22 @@
         <v>22</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>660</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="J371" s="2" t="s">
         <v>25</v>
@@ -27706,7 +27709,7 @@
         <v>29</v>
       </c>
       <c r="T371" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="U371" s="1" t="s">
         <v>31</v>
@@ -27756,10 +27759,10 @@
         <v>28</v>
       </c>
       <c r="N372" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="O372" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="P372" s="2" t="s">
         <v>29</v>
@@ -27774,7 +27777,7 @@
         <v>29</v>
       </c>
       <c r="T372" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="U372" s="1" t="s">
         <v>31</v>
@@ -27842,7 +27845,7 @@
         <v>29</v>
       </c>
       <c r="T373" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="U373" s="1" t="s">
         <v>31</v>
@@ -27910,7 +27913,7 @@
         <v>29</v>
       </c>
       <c r="T374" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U374" s="1" t="s">
         <v>31</v>
@@ -27936,16 +27939,16 @@
         <v>660</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>638</v>
+        <v>109</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>639</v>
+        <v>110</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>640</v>
+        <v>110</v>
       </c>
       <c r="J375" s="2" t="s">
         <v>25</v>
@@ -27978,7 +27981,7 @@
         <v>29</v>
       </c>
       <c r="T375" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U375" s="1" t="s">
         <v>31</v>
@@ -28004,16 +28007,16 @@
         <v>660</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="J376" s="2" t="s">
         <v>25</v>
@@ -28028,10 +28031,10 @@
         <v>28</v>
       </c>
       <c r="N376" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O376" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="P376" s="2" t="s">
         <v>29</v>
@@ -28046,7 +28049,7 @@
         <v>29</v>
       </c>
       <c r="T376" s="2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="U376" s="1" t="s">
         <v>31</v>
@@ -28072,16 +28075,16 @@
         <v>660</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J377" s="2" t="s">
         <v>25</v>
@@ -28114,7 +28117,7 @@
         <v>29</v>
       </c>
       <c r="T377" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="U377" s="1" t="s">
         <v>31</v>
@@ -28140,16 +28143,16 @@
         <v>660</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>85</v>
+        <v>297</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>86</v>
+        <v>403</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>25</v>
@@ -28164,25 +28167,25 @@
         <v>28</v>
       </c>
       <c r="N378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T378" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="O378" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P378" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q378" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R378" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S378" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T378" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="U378" s="1" t="s">
         <v>31</v>
@@ -28208,16 +28211,16 @@
         <v>660</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>25</v>
@@ -28235,7 +28238,7 @@
         <v>29</v>
       </c>
       <c r="O379" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="P379" s="2" t="s">
         <v>29</v>
@@ -28250,7 +28253,7 @@
         <v>29</v>
       </c>
       <c r="T379" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="U379" s="1" t="s">
         <v>31</v>
@@ -28276,16 +28279,16 @@
         <v>660</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>568</v>
+        <v>679</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>569</v>
+        <v>680</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>569</v>
+        <v>680</v>
       </c>
       <c r="J380" s="2" t="s">
         <v>25</v>
@@ -28318,7 +28321,7 @@
         <v>29</v>
       </c>
       <c r="T380" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="U380" s="1" t="s">
         <v>31</v>
@@ -28338,7 +28341,7 @@
         <v>22</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>660</v>
@@ -28386,7 +28389,7 @@
         <v>29</v>
       </c>
       <c r="T381" s="2" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="U381" s="1" t="s">
         <v>31</v>
@@ -28406,22 +28409,22 @@
         <v>22</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>660</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>410</v>
+        <v>573</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>411</v>
+        <v>574</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>412</v>
+        <v>575</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>25</v>
@@ -28439,7 +28442,7 @@
         <v>29</v>
       </c>
       <c r="O382" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="P382" s="2" t="s">
         <v>29</v>
@@ -28454,7 +28457,7 @@
         <v>29</v>
       </c>
       <c r="T382" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="U382" s="1" t="s">
         <v>31</v>
@@ -28474,7 +28477,7 @@
         <v>22</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>660</v>
@@ -28522,7 +28525,7 @@
         <v>29</v>
       </c>
       <c r="T383" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="U383" s="1" t="s">
         <v>31</v>
@@ -28542,7 +28545,7 @@
         <v>22</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>660</v>
@@ -28572,10 +28575,10 @@
         <v>28</v>
       </c>
       <c r="N384" s="2" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="O384" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P384" s="2" t="s">
         <v>29</v>
@@ -28590,7 +28593,7 @@
         <v>29</v>
       </c>
       <c r="T384" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="U384" s="1" t="s">
         <v>31</v>
@@ -28610,7 +28613,7 @@
         <v>22</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>660</v>
@@ -28643,7 +28646,7 @@
         <v>29</v>
       </c>
       <c r="O385" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P385" s="2" t="s">
         <v>29</v>
@@ -28658,7 +28661,7 @@
         <v>29</v>
       </c>
       <c r="T385" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="U385" s="1" t="s">
         <v>31</v>
@@ -28678,7 +28681,7 @@
         <v>22</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>660</v>
@@ -28708,7 +28711,7 @@
         <v>28</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="O386" s="2" t="s">
         <v>29</v>
@@ -28746,7 +28749,7 @@
         <v>22</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>660</v>
@@ -28779,7 +28782,7 @@
         <v>29</v>
       </c>
       <c r="O387" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="P387" s="2" t="s">
         <v>29</v>
@@ -28791,7 +28794,7 @@
         <v>29</v>
       </c>
       <c r="S387" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="T387" s="2" t="s">
         <v>29</v>
@@ -28814,7 +28817,7 @@
         <v>22</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>660</v>
@@ -28847,7 +28850,7 @@
         <v>29</v>
       </c>
       <c r="O388" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P388" s="2" t="s">
         <v>29</v>
@@ -28862,7 +28865,7 @@
         <v>29</v>
       </c>
       <c r="T388" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="U388" s="1" t="s">
         <v>31</v>
@@ -28882,7 +28885,7 @@
         <v>22</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>660</v>
@@ -28912,10 +28915,10 @@
         <v>28</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="P389" s="2" t="s">
         <v>29</v>
@@ -28930,7 +28933,7 @@
         <v>29</v>
       </c>
       <c r="T389" s="2" t="s">
-        <v>688</v>
+        <v>237</v>
       </c>
       <c r="U389" s="1" t="s">
         <v>31</v>
@@ -28950,7 +28953,7 @@
         <v>22</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>660</v>
@@ -28998,7 +29001,7 @@
         <v>29</v>
       </c>
       <c r="T390" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U390" s="1" t="s">
         <v>31</v>
@@ -29018,7 +29021,7 @@
         <v>22</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>660</v>
@@ -29048,10 +29051,10 @@
         <v>28</v>
       </c>
       <c r="N391" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O391" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="P391" s="2" t="s">
         <v>29</v>
@@ -29066,7 +29069,7 @@
         <v>29</v>
       </c>
       <c r="T391" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="U391" s="1" t="s">
         <v>31</v>
@@ -29086,7 +29089,7 @@
         <v>22</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>660</v>
@@ -29134,7 +29137,7 @@
         <v>29</v>
       </c>
       <c r="T392" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="U392" s="1" t="s">
         <v>31</v>
@@ -29154,7 +29157,7 @@
         <v>22</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>660</v>
@@ -29184,10 +29187,10 @@
         <v>28</v>
       </c>
       <c r="N393" s="2" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="O393" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P393" s="2" t="s">
         <v>29</v>
